--- a/biology/Médecine/Johannes_Christopher_Bautzmann/Johannes_Christopher_Bautzmann.xlsx
+++ b/biology/Médecine/Johannes_Christopher_Bautzmann/Johannes_Christopher_Bautzmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johannes Christopher Bautzmann, fils de Christopher Bautzmann, est un médecin allemand né le 5 octobre 1645 à Hambourg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études aux universités d'Erfurt, d'Iéna, de Kiel et de Leyde.
 C'est dans cette dernière ville qu'il obtient son doctorat de médecine, en 1673.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Eilfertige Gedanken, betreffend die itzo häufig im Schwang gehende Fieber (Stade 1679)
 Vernünftiges Urtheil von den tödlichen Wunden, zum Nutzen der Chirurgorum bey den Armeen und in kleinen Oertern (Stade 1711)</t>
